--- a/Uvalnaya Coal Mine, Russia, M1520.xlsx
+++ b/Uvalnaya Coal Mine, Russia, M1520.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">

--- a/Uvalnaya Coal Mine, Russia, M1520.xlsx
+++ b/Uvalnaya Coal Mine, Russia, M1520.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">

--- a/Uvalnaya Coal Mine, Russia, M1520.xlsx
+++ b/Uvalnaya Coal Mine, Russia, M1520.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">

--- a/Uvalnaya Coal Mine, Russia, M1520.xlsx
+++ b/Uvalnaya Coal Mine, Russia, M1520.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Uvalnaya Coal Mine, Russia, M1520, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
